--- a/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14382</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7909</v>
+        <v>8269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24583</v>
+        <v>25023</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03919413298039613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02155225533524528</v>
+        <v>0.02253585935149076</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06699257050554779</v>
+        <v>0.06819257193198155</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>4401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1808</v>
+        <v>1725</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9272</v>
+        <v>9705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01606249303534382</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006598001964668259</v>
+        <v>0.006296015615097612</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03383997889428973</v>
+        <v>0.03542118787006714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -783,19 +783,19 @@
         <v>18783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11991</v>
+        <v>11279</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30664</v>
+        <v>29944</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0293058702489897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01870792463035387</v>
+        <v>0.01759800015947809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04784247117228085</v>
+        <v>0.04671993724959948</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>47737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33909</v>
+        <v>33870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63894</v>
+        <v>64499</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1300915690857267</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09240728390162528</v>
+        <v>0.09230256575295796</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1741217365741707</v>
+        <v>0.1757727018800798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -833,19 +833,19 @@
         <v>37735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27716</v>
+        <v>27474</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49129</v>
+        <v>48761</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1377265696452175</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.10115815270028</v>
+        <v>0.1002768811691582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1793129377047835</v>
+        <v>0.177971969394027</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -854,19 +854,19 @@
         <v>85472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68581</v>
+        <v>69039</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>105752</v>
+        <v>104830</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1333553623864186</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1070025853655008</v>
+        <v>0.1077168679316652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1649963469454988</v>
+        <v>0.1635589201422303</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>220497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>199880</v>
+        <v>196887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>242077</v>
+        <v>241279</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6008932065223539</v>
+        <v>0.6008932065223538</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5447102977258625</v>
+        <v>0.5365539680400004</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6597039139915374</v>
+        <v>0.6575293154235189</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>248</v>
@@ -904,19 +904,19 @@
         <v>162329</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147311</v>
+        <v>146660</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>177564</v>
+        <v>176036</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5924754962756217</v>
+        <v>0.5924754962756218</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5376637143314966</v>
+        <v>0.5352857042811361</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6480831951889801</v>
+        <v>0.6425035530751947</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>462</v>
@@ -925,19 +925,19 @@
         <v>382826</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>355967</v>
+        <v>357290</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>406207</v>
+        <v>409064</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5972948222005218</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5553892599982945</v>
+        <v>0.5574534994791603</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6337747039157708</v>
+        <v>0.6382327026308946</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>84332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65744</v>
+        <v>67365</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104151</v>
+        <v>107384</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2298210914115235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1791640054434573</v>
+        <v>0.1835825940462257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2838309647137902</v>
+        <v>0.2926400766254205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -975,19 +975,19 @@
         <v>69519</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57395</v>
+        <v>57595</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83247</v>
+        <v>81797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2537354410438168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2094823353863189</v>
+        <v>0.2102123278418308</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3038382624020491</v>
+        <v>0.2985471827736024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>166</v>
@@ -996,19 +996,19 @@
         <v>153852</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130980</v>
+        <v>131320</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177522</v>
+        <v>178167</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2400439451640698</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2043578597264063</v>
+        <v>0.2048884861822233</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2769735930424523</v>
+        <v>0.277981111914611</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>18945</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10596</v>
+        <v>10583</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32047</v>
+        <v>30144</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0305322722380906</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01707725875882994</v>
+        <v>0.01705561151799466</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05164834438367628</v>
+        <v>0.04858110620682389</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1121,19 +1121,19 @@
         <v>9056</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4750</v>
+        <v>4974</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16029</v>
+        <v>15312</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02045263516966286</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.010728076392759</v>
+        <v>0.01123303059413606</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03620153650602879</v>
+        <v>0.03458278213886929</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -1142,19 +1142,19 @@
         <v>28000</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18200</v>
+        <v>17852</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40376</v>
+        <v>40808</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02633488912037593</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01711774517231584</v>
+        <v>0.01679031899658482</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03797416455351286</v>
+        <v>0.03838019139717305</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>82471</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61714</v>
+        <v>62578</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108748</v>
+        <v>104269</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1329140156925896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09945999480806973</v>
+        <v>0.1008526131465094</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1752627860033633</v>
+        <v>0.1680434206041307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -1192,19 +1192,19 @@
         <v>57715</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46392</v>
+        <v>46353</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71469</v>
+        <v>71170</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1303528428019816</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.104778377988569</v>
+        <v>0.1046914686016547</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1614163167908477</v>
+        <v>0.1607414651195725</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -1213,19 +1213,19 @@
         <v>140186</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116935</v>
+        <v>118758</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164874</v>
+        <v>166440</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1318474868305278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1099797315812729</v>
+        <v>0.1116934908435941</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1550672069982906</v>
+        <v>0.1565399277776379</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>389559</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>361557</v>
+        <v>361378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>418482</v>
+        <v>415824</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6278287527115581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5826999910154057</v>
+        <v>0.582411814295714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6744415448175117</v>
+        <v>0.6701591661102099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>385</v>
@@ -1263,19 +1263,19 @@
         <v>286649</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264855</v>
+        <v>268442</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302885</v>
+        <v>305027</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6474162858645567</v>
+        <v>0.6474162858645569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5981922095125404</v>
+        <v>0.6062928818267828</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6840847511897863</v>
+        <v>0.6889226917565938</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>726</v>
@@ -1284,19 +1284,19 @@
         <v>676208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>639952</v>
+        <v>645458</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>707534</v>
+        <v>711766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6359854333951906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6018854177571672</v>
+        <v>0.6070638978050628</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6654476197947535</v>
+        <v>0.6694281628287422</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>129511</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>107255</v>
+        <v>104937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>153611</v>
+        <v>154652</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2087249593577617</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1728563606347758</v>
+        <v>0.1691199020352097</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.247566248132434</v>
+        <v>0.2492439709745542</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -1334,19 +1334,19 @@
         <v>89339</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75980</v>
+        <v>73872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109403</v>
+        <v>105516</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2017782361637988</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.171605207865562</v>
+        <v>0.1668445695699925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2470948239234687</v>
+        <v>0.238314466814095</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>217</v>
@@ -1355,19 +1355,19 @@
         <v>218850</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>195761</v>
+        <v>192564</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>252487</v>
+        <v>247754</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2058321906539055</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1841162751523144</v>
+        <v>0.1811095536593228</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2374686910187521</v>
+        <v>0.2330170176319629</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>3162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9291</v>
+        <v>8505</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.007736243153893705</v>
+        <v>0.007736243153893707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002102486492388741</v>
+        <v>0.002088834320796807</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02273152076052526</v>
+        <v>0.02080749899676594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>8336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4411</v>
+        <v>4245</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14294</v>
+        <v>14430</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0250168715449866</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01323824481387935</v>
+        <v>0.01274064178725531</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04289937193008757</v>
+        <v>0.04330927733395595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1501,19 +1501,19 @@
         <v>11498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6308</v>
+        <v>6407</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18419</v>
+        <v>18851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01549677305777439</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008502446073282002</v>
+        <v>0.008635416279934657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02482560907631184</v>
+        <v>0.02540720773132099</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>48229</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35152</v>
+        <v>34692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>65402</v>
+        <v>66299</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1179940081231182</v>
+        <v>0.1179940081231183</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08600054590560754</v>
+        <v>0.08487394191818741</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1600075991294715</v>
+        <v>0.162202257684778</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>48</v>
@@ -1551,19 +1551,19 @@
         <v>40223</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31396</v>
+        <v>29018</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52153</v>
+        <v>52648</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1207195873244243</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0942280448900063</v>
+        <v>0.08708910250815313</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1565249765881998</v>
+        <v>0.1580103879745304</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>85</v>
@@ -1572,19 +1572,19 @@
         <v>88452</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>71239</v>
+        <v>70111</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>109824</v>
+        <v>109413</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1192180341491645</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09601793143383734</v>
+        <v>0.09449737531929986</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1480232303698612</v>
+        <v>0.1474689034878399</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>245787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>221208</v>
+        <v>223069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>269209</v>
+        <v>267622</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6013255384627859</v>
+        <v>0.601325538462786</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5411912299781769</v>
+        <v>0.5457459273394847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6586292096599194</v>
+        <v>0.654744555190667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>247</v>
@@ -1622,19 +1622,19 @@
         <v>198723</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181113</v>
+        <v>182666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214381</v>
+        <v>214477</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5964155518159731</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5435626800579531</v>
+        <v>0.5482234788193334</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6434068719919891</v>
+        <v>0.6436953825960431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>443</v>
@@ -1643,19 +1643,19 @@
         <v>444510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>417336</v>
+        <v>412895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>475165</v>
+        <v>473373</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5991205203732883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5624948722696295</v>
+        <v>0.5565084729153662</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6404369838098227</v>
+        <v>0.6380219818964858</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>111564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88767</v>
+        <v>90704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133287</v>
+        <v>133649</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.272944210260202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2171707320609016</v>
+        <v>0.2219109300617806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3260908343874931</v>
+        <v>0.3269768517754956</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -1693,19 +1693,19 @@
         <v>85914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72164</v>
+        <v>73635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>100755</v>
+        <v>101759</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2578479893146162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2165810950253711</v>
+        <v>0.2209968381236324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3023900091605626</v>
+        <v>0.3054013977619628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>194</v>
@@ -1714,19 +1714,19 @@
         <v>197478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>171313</v>
+        <v>170977</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>224238</v>
+        <v>224757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2661646724197729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2308992212299767</v>
+        <v>0.2304471220636666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3022330002945393</v>
+        <v>0.3029326498239954</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>16975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9620</v>
+        <v>9238</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31979</v>
+        <v>31304</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03325838080258076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01884810235130132</v>
+        <v>0.0180989246982917</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06265274424541112</v>
+        <v>0.06133057767917301</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1839,19 +1839,19 @@
         <v>13316</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8298</v>
+        <v>7982</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20290</v>
+        <v>20663</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03001618002204497</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01870554165695774</v>
+        <v>0.01799196199159339</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04573628366819203</v>
+        <v>0.04657824601519781</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1860,19 +1860,19 @@
         <v>30291</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20972</v>
+        <v>21510</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45607</v>
+        <v>46272</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0317507610656249</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02198261499937294</v>
+        <v>0.02254677220607596</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04780396621892659</v>
+        <v>0.04850166167586929</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>47590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34430</v>
+        <v>34315</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63462</v>
+        <v>62753</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09323852056639824</v>
+        <v>0.09323852056639821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06745477489835927</v>
+        <v>0.0672299818771312</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1243350475408474</v>
+        <v>0.1229471943654846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -1910,19 +1910,19 @@
         <v>46796</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35870</v>
+        <v>36587</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59079</v>
+        <v>58720</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.105485060091596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08085714043891122</v>
+        <v>0.08247255962612574</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1331747050669145</v>
+        <v>0.132364512160686</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -1931,19 +1931,19 @@
         <v>94385</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76266</v>
+        <v>77756</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112553</v>
+        <v>115312</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09893314774940289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07994074991108509</v>
+        <v>0.08150209002128016</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1179754983525325</v>
+        <v>0.1208680694879939</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>277446</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>254136</v>
+        <v>254296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>303163</v>
+        <v>302685</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5435767072752585</v>
+        <v>0.5435767072752584</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4979056130845466</v>
+        <v>0.4982205969854038</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.593961583676845</v>
+        <v>0.5930246463896169</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>338</v>
@@ -1981,19 +1981,19 @@
         <v>249838</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>231818</v>
+        <v>229473</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>268992</v>
+        <v>268302</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5631752869720402</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5225545547760425</v>
+        <v>0.5172693389314073</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6063504220145343</v>
+        <v>0.6047970416812739</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>600</v>
@@ -2002,19 +2002,19 @@
         <v>527285</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>498241</v>
+        <v>497080</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>558173</v>
+        <v>556238</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5526900249157186</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5222471534328265</v>
+        <v>0.5210304690441185</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5850671347760011</v>
+        <v>0.5830383144912363</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>168397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145690</v>
+        <v>146672</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191152</v>
+        <v>192329</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3299263913557626</v>
+        <v>0.3299263913557625</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.285438221814386</v>
+        <v>0.2873621215425266</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3745074458387308</v>
+        <v>0.3768134641652743</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>177</v>
@@ -2052,19 +2052,19 @@
         <v>133674</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116802</v>
+        <v>116668</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150819</v>
+        <v>152287</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3013234729143188</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2632902486795862</v>
+        <v>0.2629888205763662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.339970046824812</v>
+        <v>0.343279072925943</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>325</v>
@@ -2073,19 +2073,19 @@
         <v>302072</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>275278</v>
+        <v>275114</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>330425</v>
+        <v>331473</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3166260662692536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2885411025645617</v>
+        <v>0.2883698554143877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3463451612195858</v>
+        <v>0.3474444143647666</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>53465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38765</v>
+        <v>39484</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73088</v>
+        <v>71385</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02804205399084524</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02033225327566743</v>
+        <v>0.02070912871226455</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03833468146535501</v>
+        <v>0.03744145533557636</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -2198,19 +2198,19 @@
         <v>35108</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25457</v>
+        <v>26144</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45863</v>
+        <v>46882</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0235061203825458</v>
+        <v>0.02350612038254579</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01704453025305273</v>
+        <v>0.01750444116982015</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03070700009097103</v>
+        <v>0.03138963277080736</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -2219,19 +2219,19 @@
         <v>88572</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>69747</v>
+        <v>71602</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>109989</v>
+        <v>111983</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02604958128945074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02051283070069544</v>
+        <v>0.02105861029877179</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03234816845828612</v>
+        <v>0.03293463106628212</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>226027</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>193139</v>
+        <v>194187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>257585</v>
+        <v>262448</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.118550723851103</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1013012275338185</v>
+        <v>0.1018505997233145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1351027438634491</v>
+        <v>0.1376536601415743</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>232</v>
@@ -2269,19 +2269,19 @@
         <v>182469</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>159267</v>
+        <v>159818</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>205816</v>
+        <v>206484</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1221701136094584</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1066354692717825</v>
+        <v>0.1070047203702022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.137801932585157</v>
+        <v>0.1382489949410314</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>418</v>
@@ -2290,19 +2290,19 @@
         <v>408496</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>370697</v>
+        <v>370802</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>451686</v>
+        <v>452325</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1201405917618755</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1090239101112838</v>
+        <v>0.1090545875911759</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1328430794529535</v>
+        <v>0.1330310842850507</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1133289</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1084301</v>
+        <v>1085674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1180477</v>
+        <v>1180697</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5944077996908947</v>
+        <v>0.5944077996908946</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5687137966519212</v>
+        <v>0.5694336253167128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6191577123506464</v>
+        <v>0.6192729852960299</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1218</v>
@@ -2340,19 +2340,19 @@
         <v>897540</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>862832</v>
+        <v>861313</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>928987</v>
+        <v>931739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6009385087121901</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5777003971742817</v>
+        <v>0.5766830941172061</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6219937146205197</v>
+        <v>0.6238361642324649</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2231</v>
@@ -2361,19 +2361,19 @@
         <v>2030829</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1973853</v>
+        <v>1974654</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2092576</v>
+        <v>2087885</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5972765055780076</v>
+        <v>0.5972765055780077</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5805197180126627</v>
+        <v>0.5807553243082225</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6154367951154007</v>
+        <v>0.6140569931696537</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>493804</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>452267</v>
+        <v>448571</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>540627</v>
+        <v>537096</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2589994224671571</v>
+        <v>0.258999422467157</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2372129071589393</v>
+        <v>0.2352743504616767</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2835578157080251</v>
+        <v>0.2817056686743167</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>501</v>
@@ -2411,19 +2411,19 @@
         <v>378447</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>349767</v>
+        <v>348262</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>412592</v>
+        <v>409888</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2533852572958056</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2341829557702763</v>
+        <v>0.2331752072088819</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2762466558433899</v>
+        <v>0.2744363030196774</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>902</v>
@@ -2432,19 +2432,19 @@
         <v>872251</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>820790</v>
+        <v>818314</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>925814</v>
+        <v>922648</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2565333213706661</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2413981818954793</v>
+        <v>0.2406701173628265</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2722863382697874</v>
+        <v>0.2713553715022712</v>
       </c>
     </row>
     <row r="28">
